--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -119,12 +119,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="214">
   <si>
     <t>#class</t>
-  </si>
-  <si>
-    <t>注释</t>
   </si>
   <si>
     <t>类名称</t>
@@ -727,6 +724,36 @@
     <t>grade</t>
   </si>
   <si>
+    <t>判断类型 4是与的关系   5是或的关系</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>条件列表</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>ConditionData</t>
+  </si>
+  <si>
+    <t>条件内容-id</t>
+  </si>
+  <si>
+    <t>条件内容-数值</t>
+  </si>
+  <si>
+    <t>条件内容-限制条件</t>
+  </si>
+  <si>
+    <t>条件内容-保存的key/uuid列表</t>
+  </si>
+  <si>
     <t>记录id</t>
   </si>
   <si>
@@ -770,6 +797,9 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>conditions</t>
   </si>
   <si>
     <t>状态</t>
@@ -807,8 +837,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -845,16 +875,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -869,28 +920,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,78 +1005,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,8 +1018,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,6 +1100,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1082,7 +1166,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,109 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,42 +1275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,6 +1299,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,50 +1357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1370,6 +1380,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1378,10 +1408,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,31 +1420,34 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,104 +1456,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,6 +1575,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1552,6 +1588,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1602,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,46 +2028,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH73"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="X23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y36" sqref="Y36"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="13" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="13" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="13" customWidth="1"/>
-    <col min="15" max="16" width="19.25" style="13" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="13" customWidth="1"/>
-    <col min="19" max="19" width="11" style="13" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="15" style="13" customWidth="1"/>
-    <col min="22" max="22" width="11" style="13" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="13" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="13" customWidth="1"/>
-    <col min="26" max="29" width="9" style="13" customWidth="1"/>
-    <col min="30" max="30" width="11" style="13" customWidth="1"/>
-    <col min="31" max="31" width="8.375" style="13" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="13" customWidth="1"/>
-    <col min="33" max="33" width="19.625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="13" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="48.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="16" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="16" customWidth="1"/>
+    <col min="13" max="14" width="18.25" style="16" customWidth="1"/>
+    <col min="15" max="16" width="19.25" style="16" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="11" style="16" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="15" style="16" customWidth="1"/>
+    <col min="22" max="22" width="11" style="16" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="16" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="16" customWidth="1"/>
+    <col min="26" max="29" width="9" style="16" customWidth="1"/>
+    <col min="30" max="30" width="11" style="16" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="16" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="16" customWidth="1"/>
+    <col min="33" max="33" width="19.625" style="16" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="16" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -2030,108 +2075,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:34">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" s="2" customFormat="1" spans="2:34">
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:34">
@@ -2240,126 +2282,126 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:34">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:30">
       <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="O5" s="5">
         <v>1</v>
@@ -2412,16 +2454,16 @@
     </row>
     <row r="6" s="6" customFormat="1" spans="1:30">
       <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="O6" s="6">
         <v>0</v>
@@ -2474,22 +2516,22 @@
     </row>
     <row r="7" s="6" customFormat="1" spans="1:30">
       <c r="A7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -2542,16 +2584,16 @@
     </row>
     <row r="8" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="O8" s="6">
         <v>0</v>
@@ -2604,16 +2646,16 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="6">
         <v>0</v>
@@ -2666,16 +2708,16 @@
     </row>
     <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="O10" s="6">
         <v>0</v>
@@ -2728,16 +2770,16 @@
     </row>
     <row r="11" s="6" customFormat="1" spans="1:30">
       <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="6">
         <v>0</v>
@@ -2790,16 +2832,16 @@
     </row>
     <row r="12" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="6">
         <v>0</v>
@@ -2852,16 +2894,16 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O13" s="6">
         <v>0</v>
@@ -2914,16 +2956,16 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O14" s="6">
         <v>0</v>
@@ -2976,16 +3018,16 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O15" s="6">
         <v>0</v>
@@ -3038,28 +3080,28 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O16" s="6">
         <v>0</v>
@@ -3112,28 +3154,28 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O17" s="6">
         <v>0</v>
@@ -3186,19 +3228,19 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -3251,19 +3293,19 @@
     </row>
     <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -3316,19 +3358,19 @@
     </row>
     <row r="20" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -3381,28 +3423,28 @@
     </row>
     <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -3455,16 +3497,16 @@
     </row>
     <row r="22" s="6" customFormat="1" spans="1:30">
       <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O22" s="6">
         <v>0</v>
@@ -3517,16 +3559,16 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
@@ -3579,28 +3621,28 @@
     </row>
     <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="H24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="O24" s="6">
         <v>1</v>
@@ -3653,16 +3695,16 @@
     </row>
     <row r="25" s="6" customFormat="1" spans="1:30">
       <c r="A25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="6">
         <v>0</v>
@@ -3715,28 +3757,28 @@
     </row>
     <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="E26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="H26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="O26" s="6">
         <v>1</v>
@@ -3789,16 +3831,16 @@
     </row>
     <row r="27" s="6" customFormat="1" spans="1:30">
       <c r="A27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="6">
         <v>0</v>
@@ -3851,16 +3893,16 @@
     </row>
     <row r="28" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="6">
         <v>0</v>
@@ -3913,16 +3955,16 @@
     </row>
     <row r="29" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O29" s="6">
         <v>0</v>
@@ -3975,16 +4017,16 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O30" s="6">
         <v>0</v>
@@ -4037,16 +4079,16 @@
     </row>
     <row r="31" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O31" s="6">
         <v>0</v>
@@ -4099,16 +4141,16 @@
     </row>
     <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O32" s="6">
         <v>0</v>
@@ -4161,16 +4203,16 @@
     </row>
     <row r="33" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O33" s="6">
         <v>0</v>
@@ -4223,16 +4265,16 @@
     </row>
     <row r="34" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O34" s="6">
         <v>0</v>
@@ -4285,16 +4327,16 @@
     </row>
     <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O35" s="6">
         <v>0</v>
@@ -4347,31 +4389,31 @@
     </row>
     <row r="36" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="E36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="M36" s="6">
         <v>100</v>
@@ -4430,16 +4472,16 @@
     </row>
     <row r="37" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O37" s="6">
         <v>0</v>
@@ -4492,16 +4534,16 @@
     </row>
     <row r="38" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O38" s="6">
         <v>0</v>
@@ -4554,28 +4596,28 @@
     </row>
     <row r="39" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="E39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O39" s="6">
         <v>0</v>
@@ -4628,27 +4670,26 @@
     </row>
     <row r="40" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>71</v>
+      </c>
       <c r="O40" s="6">
         <v>0</v>
       </c>
@@ -4700,25 +4741,25 @@
     </row>
     <row r="41" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O41" s="6">
         <v>0</v>
@@ -4771,16 +4812,16 @@
     </row>
     <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="O42" s="7">
         <v>0</v>
@@ -4833,19 +4874,19 @@
     </row>
     <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
@@ -4898,16 +4939,16 @@
     </row>
     <row r="44" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O44" s="7">
         <v>0</v>
@@ -4960,16 +5001,16 @@
     </row>
     <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
@@ -5022,16 +5063,16 @@
     </row>
     <row r="46" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="O46" s="7">
         <v>0</v>
@@ -5084,16 +5125,16 @@
     </row>
     <row r="47" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A47" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O47" s="7">
         <v>0</v>
@@ -5146,16 +5187,16 @@
     </row>
     <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48" s="7">
         <v>99999</v>
@@ -5211,468 +5252,489 @@
     </row>
     <row r="49" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A49" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8">
+        <v>1</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+      <c r="W49" s="8">
+        <v>0</v>
+      </c>
+      <c r="X49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A50" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0</v>
-      </c>
-      <c r="P49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>0</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0</v>
-      </c>
-      <c r="S49" s="8">
-        <v>1</v>
-      </c>
-      <c r="T49" s="8">
-        <v>0</v>
-      </c>
-      <c r="U49" s="8">
-        <v>0</v>
-      </c>
-      <c r="V49" s="8">
-        <v>0</v>
-      </c>
-      <c r="W49" s="8">
-        <v>1</v>
-      </c>
-      <c r="X49" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A50" s="8" t="s">
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="9">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A51" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>1</v>
+      </c>
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+      <c r="U51" s="9">
+        <v>0</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>1</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52" s="9">
+        <v>0</v>
+      </c>
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>0</v>
+      </c>
+      <c r="X52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A53" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="E53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0</v>
+      </c>
+      <c r="S53" s="8">
+        <v>1</v>
+      </c>
+      <c r="T53" s="8">
+        <v>0</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0</v>
+      </c>
+      <c r="W53" s="8">
+        <v>0</v>
+      </c>
+      <c r="X53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A54" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O50" s="8">
-        <v>0</v>
-      </c>
-      <c r="P50" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>0</v>
-      </c>
-      <c r="R50" s="8">
-        <v>0</v>
-      </c>
-      <c r="S50" s="8">
-        <v>1</v>
-      </c>
-      <c r="T50" s="8">
-        <v>0</v>
-      </c>
-      <c r="U50" s="8">
-        <v>0</v>
-      </c>
-      <c r="V50" s="8">
-        <v>0</v>
-      </c>
-      <c r="W50" s="8">
-        <v>1</v>
-      </c>
-      <c r="X50" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A51" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O51" s="9">
-        <v>1</v>
-      </c>
-      <c r="P51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9">
-        <v>0</v>
-      </c>
-      <c r="S51" s="9">
-        <v>1</v>
-      </c>
-      <c r="T51" s="9">
-        <v>1</v>
-      </c>
-      <c r="U51" s="9">
-        <v>0</v>
-      </c>
-      <c r="V51" s="9">
-        <v>0</v>
-      </c>
-      <c r="W51" s="9">
-        <v>1</v>
-      </c>
-      <c r="X51" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A52" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O52" s="9">
-        <v>1</v>
-      </c>
-      <c r="P52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>0</v>
-      </c>
-      <c r="R52" s="9">
-        <v>0</v>
-      </c>
-      <c r="S52" s="9">
-        <v>1</v>
-      </c>
-      <c r="T52" s="9">
-        <v>1</v>
-      </c>
-      <c r="U52" s="9">
-        <v>0</v>
-      </c>
-      <c r="V52" s="9">
-        <v>0</v>
-      </c>
-      <c r="W52" s="9">
-        <v>1</v>
-      </c>
-      <c r="X52" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A53" s="9" t="s">
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>0</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9">
+        <v>1</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+      <c r="V54" s="9">
+        <v>0</v>
+      </c>
+      <c r="W54" s="9">
+        <v>0</v>
+      </c>
+      <c r="X54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A55" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O53" s="9">
-        <v>1</v>
-      </c>
-      <c r="P53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9">
-        <v>0</v>
-      </c>
-      <c r="S53" s="9">
-        <v>1</v>
-      </c>
-      <c r="T53" s="9">
-        <v>1</v>
-      </c>
-      <c r="U53" s="9">
-        <v>0</v>
-      </c>
-      <c r="V53" s="9">
-        <v>0</v>
-      </c>
-      <c r="W53" s="9">
-        <v>1</v>
-      </c>
-      <c r="X53" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O54" s="10">
-        <v>0</v>
-      </c>
-      <c r="P54" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="10">
-        <v>0</v>
-      </c>
-      <c r="R54" s="10">
-        <v>0</v>
-      </c>
-      <c r="S54" s="10">
-        <v>0</v>
-      </c>
-      <c r="T54" s="10">
-        <v>1</v>
-      </c>
-      <c r="U54" s="10">
-        <v>0</v>
-      </c>
-      <c r="V54" s="10">
-        <v>0</v>
-      </c>
-      <c r="W54" s="14">
-        <v>1</v>
-      </c>
-      <c r="X54" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="O55" s="10">
-        <v>1</v>
-      </c>
-      <c r="P55" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="10">
-        <v>0</v>
-      </c>
-      <c r="R55" s="10">
-        <v>0</v>
-      </c>
-      <c r="S55" s="10">
-        <v>1</v>
-      </c>
-      <c r="T55" s="10">
-        <v>1</v>
-      </c>
-      <c r="U55" s="10">
-        <v>0</v>
-      </c>
-      <c r="V55" s="10">
-        <v>0</v>
-      </c>
-      <c r="W55" s="14">
-        <v>1</v>
-      </c>
-      <c r="X55" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="10">
+      <c r="E55" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O55" s="9">
+        <v>0</v>
+      </c>
+      <c r="P55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>0</v>
+      </c>
+      <c r="R55" s="9">
+        <v>0</v>
+      </c>
+      <c r="S55" s="9">
+        <v>1</v>
+      </c>
+      <c r="T55" s="9">
+        <v>0</v>
+      </c>
+      <c r="U55" s="9">
+        <v>0</v>
+      </c>
+      <c r="V55" s="9">
+        <v>0</v>
+      </c>
+      <c r="W55" s="9">
+        <v>0</v>
+      </c>
+      <c r="X55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A56" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="O56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="10">
         <v>0</v>
@@ -5687,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="10">
         <v>0</v>
@@ -5695,13 +5757,13 @@
       <c r="V56" s="10">
         <v>0</v>
       </c>
-      <c r="W56" s="14">
-        <v>1</v>
-      </c>
-      <c r="X56" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="14">
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10">
         <v>1</v>
       </c>
       <c r="Z56" s="10">
@@ -5722,1029 +5784,1480 @@
     </row>
     <row r="57" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A57" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="T57" s="10">
+        <v>0</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="10">
+        <v>1</v>
+      </c>
+      <c r="X57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A58" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O58" s="11">
+        <v>1</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <v>1</v>
+      </c>
+      <c r="T58" s="11">
+        <v>1</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0</v>
+      </c>
+      <c r="V58" s="11">
+        <v>0</v>
+      </c>
+      <c r="W58" s="11">
+        <v>1</v>
+      </c>
+      <c r="X58" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A59" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O59" s="11">
+        <v>1</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>1</v>
+      </c>
+      <c r="T59" s="11">
+        <v>1</v>
+      </c>
+      <c r="U59" s="11">
+        <v>0</v>
+      </c>
+      <c r="V59" s="11">
+        <v>0</v>
+      </c>
+      <c r="W59" s="11">
+        <v>1</v>
+      </c>
+      <c r="X59" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O60" s="11">
+        <v>1</v>
+      </c>
+      <c r="P60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>0</v>
+      </c>
+      <c r="R60" s="11">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <v>1</v>
+      </c>
+      <c r="T60" s="11">
+        <v>1</v>
+      </c>
+      <c r="U60" s="11">
+        <v>0</v>
+      </c>
+      <c r="V60" s="11">
+        <v>0</v>
+      </c>
+      <c r="W60" s="11">
+        <v>1</v>
+      </c>
+      <c r="X60" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A61" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="B61" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0</v>
+      </c>
+      <c r="P61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>0</v>
+      </c>
+      <c r="R61" s="12">
+        <v>0</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0</v>
+      </c>
+      <c r="T61" s="12">
+        <v>1</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0</v>
+      </c>
+      <c r="V61" s="12">
+        <v>0</v>
+      </c>
+      <c r="W61" s="18">
+        <v>1</v>
+      </c>
+      <c r="X61" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A62" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O62" s="12">
+        <v>1</v>
+      </c>
+      <c r="P62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>0</v>
+      </c>
+      <c r="R62" s="12">
+        <v>0</v>
+      </c>
+      <c r="S62" s="12">
+        <v>1</v>
+      </c>
+      <c r="T62" s="12">
+        <v>1</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0</v>
+      </c>
+      <c r="V62" s="12">
+        <v>0</v>
+      </c>
+      <c r="W62" s="18">
+        <v>1</v>
+      </c>
+      <c r="X62" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O63" s="12">
+        <v>1</v>
+      </c>
+      <c r="P63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>0</v>
+      </c>
+      <c r="R63" s="12">
+        <v>0</v>
+      </c>
+      <c r="S63" s="12">
+        <v>1</v>
+      </c>
+      <c r="T63" s="12">
+        <v>1</v>
+      </c>
+      <c r="U63" s="12">
+        <v>0</v>
+      </c>
+      <c r="V63" s="12">
+        <v>0</v>
+      </c>
+      <c r="W63" s="18">
+        <v>1</v>
+      </c>
+      <c r="X63" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A64" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="O64" s="12">
+        <v>0</v>
+      </c>
+      <c r="P64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>0</v>
+      </c>
+      <c r="R64" s="12">
+        <v>0</v>
+      </c>
+      <c r="S64" s="12">
+        <v>1</v>
+      </c>
+      <c r="T64" s="12">
+        <v>1</v>
+      </c>
+      <c r="U64" s="12">
+        <v>0</v>
+      </c>
+      <c r="V64" s="12">
+        <v>0</v>
+      </c>
+      <c r="W64" s="18">
+        <v>1</v>
+      </c>
+      <c r="X64" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A65" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" s="12">
+        <v>0</v>
+      </c>
+      <c r="P65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>0</v>
+      </c>
+      <c r="R65" s="12">
+        <v>0</v>
+      </c>
+      <c r="S65" s="12">
+        <v>1</v>
+      </c>
+      <c r="T65" s="12">
+        <v>1</v>
+      </c>
+      <c r="U65" s="12">
+        <v>0</v>
+      </c>
+      <c r="V65" s="12">
+        <v>0</v>
+      </c>
+      <c r="W65" s="18">
+        <v>1</v>
+      </c>
+      <c r="X65" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A66" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" s="12">
+        <v>0</v>
+      </c>
+      <c r="P66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>0</v>
+      </c>
+      <c r="R66" s="12">
+        <v>0</v>
+      </c>
+      <c r="S66" s="12">
+        <v>1</v>
+      </c>
+      <c r="T66" s="12">
+        <v>1</v>
+      </c>
+      <c r="U66" s="12">
+        <v>0</v>
+      </c>
+      <c r="V66" s="12">
+        <v>0</v>
+      </c>
+      <c r="W66" s="18">
+        <v>1</v>
+      </c>
+      <c r="X66" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A67" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>0</v>
+      </c>
+      <c r="R67" s="10">
+        <v>0</v>
+      </c>
+      <c r="S67" s="10">
+        <v>1</v>
+      </c>
+      <c r="T67" s="10">
+        <v>0</v>
+      </c>
+      <c r="U67" s="10">
+        <v>0</v>
+      </c>
+      <c r="V67" s="10">
+        <v>0</v>
+      </c>
+      <c r="W67" s="10">
+        <v>1</v>
+      </c>
+      <c r="X67" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A68" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" s="13">
+        <v>0</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0</v>
+      </c>
+      <c r="S68" s="13">
+        <v>1</v>
+      </c>
+      <c r="T68" s="13">
+        <v>1</v>
+      </c>
+      <c r="U68" s="13">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13">
+        <v>0</v>
+      </c>
+      <c r="W68" s="13">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A69" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>0</v>
+      </c>
+      <c r="R69" s="10">
+        <v>0</v>
+      </c>
+      <c r="S69" s="10">
+        <v>1</v>
+      </c>
+      <c r="T69" s="10">
+        <v>0</v>
+      </c>
+      <c r="U69" s="10">
+        <v>0</v>
+      </c>
+      <c r="V69" s="10">
+        <v>0</v>
+      </c>
+      <c r="W69" s="10">
+        <v>1</v>
+      </c>
+      <c r="X69" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="C70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O70" s="14">
+        <v>0</v>
+      </c>
+      <c r="P70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="14">
+        <v>0</v>
+      </c>
+      <c r="R70" s="14">
+        <v>0</v>
+      </c>
+      <c r="S70" s="14">
+        <v>0</v>
+      </c>
+      <c r="T70" s="14">
+        <v>0</v>
+      </c>
+      <c r="U70" s="14">
+        <v>0</v>
+      </c>
+      <c r="V70" s="14">
+        <v>0</v>
+      </c>
+      <c r="W70" s="14">
+        <v>0</v>
+      </c>
+      <c r="X70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="14" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
+      <c r="A71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O71" s="14">
+        <v>0</v>
+      </c>
+      <c r="P71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="14">
+        <v>0</v>
+      </c>
+      <c r="R71" s="14">
+        <v>0</v>
+      </c>
+      <c r="S71" s="14">
+        <v>1</v>
+      </c>
+      <c r="T71" s="14">
+        <v>0</v>
+      </c>
+      <c r="U71" s="14">
+        <v>0</v>
+      </c>
+      <c r="V71" s="14">
+        <v>0</v>
+      </c>
+      <c r="W71" s="14">
+        <v>0</v>
+      </c>
+      <c r="X71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A72" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O72" s="14">
+        <v>0</v>
+      </c>
+      <c r="P72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>0</v>
+      </c>
+      <c r="R72" s="14">
+        <v>0</v>
+      </c>
+      <c r="S72" s="14">
+        <v>0</v>
+      </c>
+      <c r="T72" s="14">
+        <v>0</v>
+      </c>
+      <c r="U72" s="14">
+        <v>0</v>
+      </c>
+      <c r="V72" s="14">
+        <v>0</v>
+      </c>
+      <c r="W72" s="14">
+        <v>0</v>
+      </c>
+      <c r="X72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A73" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O73" s="14">
+        <v>0</v>
+      </c>
+      <c r="P73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="14">
+        <v>0</v>
+      </c>
+      <c r="R73" s="14">
+        <v>0</v>
+      </c>
+      <c r="S73" s="14">
+        <v>0</v>
+      </c>
+      <c r="T73" s="14">
+        <v>0</v>
+      </c>
+      <c r="U73" s="14">
+        <v>0</v>
+      </c>
+      <c r="V73" s="14">
+        <v>0</v>
+      </c>
+      <c r="W73" s="14">
+        <v>0</v>
+      </c>
+      <c r="X73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A74" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0</v>
+      </c>
+      <c r="P74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>0</v>
+      </c>
+      <c r="R74" s="10">
+        <v>0</v>
+      </c>
+      <c r="S74" s="10">
+        <v>1</v>
+      </c>
+      <c r="T74" s="10">
+        <v>1</v>
+      </c>
+      <c r="U74" s="10">
+        <v>0</v>
+      </c>
+      <c r="V74" s="10">
+        <v>0</v>
+      </c>
+      <c r="W74" s="10">
+        <v>0</v>
+      </c>
+      <c r="X74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="15" customFormat="1" spans="1:24">
+      <c r="A75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="O57" s="10">
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="10">
-        <v>0</v>
-      </c>
-      <c r="R57" s="10">
-        <v>0</v>
-      </c>
-      <c r="S57" s="10">
-        <v>1</v>
-      </c>
-      <c r="T57" s="10">
-        <v>1</v>
-      </c>
-      <c r="U57" s="10">
-        <v>0</v>
-      </c>
-      <c r="V57" s="10">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14">
-        <v>1</v>
-      </c>
-      <c r="X57" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A58" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O58" s="10">
-        <v>0</v>
-      </c>
-      <c r="P58" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="10">
-        <v>0</v>
-      </c>
-      <c r="R58" s="10">
-        <v>0</v>
-      </c>
-      <c r="S58" s="10">
-        <v>1</v>
-      </c>
-      <c r="T58" s="10">
-        <v>1</v>
-      </c>
-      <c r="U58" s="10">
-        <v>0</v>
-      </c>
-      <c r="V58" s="10">
-        <v>0</v>
-      </c>
-      <c r="W58" s="14">
-        <v>1</v>
-      </c>
-      <c r="X58" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A59" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" s="10">
-        <v>0</v>
-      </c>
-      <c r="P59" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="10">
-        <v>0</v>
-      </c>
-      <c r="R59" s="10">
-        <v>0</v>
-      </c>
-      <c r="S59" s="10">
-        <v>1</v>
-      </c>
-      <c r="T59" s="10">
-        <v>1</v>
-      </c>
-      <c r="U59" s="10">
-        <v>0</v>
-      </c>
-      <c r="V59" s="10">
-        <v>0</v>
-      </c>
-      <c r="W59" s="14">
-        <v>1</v>
-      </c>
-      <c r="X59" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O60" s="8">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>0</v>
-      </c>
-      <c r="R60" s="8">
-        <v>0</v>
-      </c>
-      <c r="S60" s="8">
-        <v>1</v>
-      </c>
-      <c r="T60" s="8">
-        <v>0</v>
-      </c>
-      <c r="U60" s="8">
-        <v>0</v>
-      </c>
-      <c r="V60" s="8">
-        <v>0</v>
-      </c>
-      <c r="W60" s="8">
-        <v>1</v>
-      </c>
-      <c r="X60" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O61" s="8">
-        <v>0</v>
-      </c>
-      <c r="P61" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="8">
-        <v>0</v>
-      </c>
-      <c r="R61" s="8">
-        <v>0</v>
-      </c>
-      <c r="S61" s="8">
-        <v>1</v>
-      </c>
-      <c r="T61" s="8">
-        <v>0</v>
-      </c>
-      <c r="U61" s="8">
-        <v>0</v>
-      </c>
-      <c r="V61" s="8">
-        <v>0</v>
-      </c>
-      <c r="W61" s="8">
-        <v>1</v>
-      </c>
-      <c r="X61" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A62" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O62" s="8">
-        <v>0</v>
-      </c>
-      <c r="P62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="8">
-        <v>0</v>
-      </c>
-      <c r="R62" s="8">
-        <v>0</v>
-      </c>
-      <c r="S62" s="8">
-        <v>1</v>
-      </c>
-      <c r="T62" s="8">
-        <v>0</v>
-      </c>
-      <c r="U62" s="8">
-        <v>0</v>
-      </c>
-      <c r="V62" s="8">
-        <v>0</v>
-      </c>
-      <c r="W62" s="8">
-        <v>1</v>
-      </c>
-      <c r="X62" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A63" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O63" s="11">
-        <v>0</v>
-      </c>
-      <c r="P63" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="11">
-        <v>0</v>
-      </c>
-      <c r="R63" s="11">
-        <v>0</v>
-      </c>
-      <c r="S63" s="11">
-        <v>0</v>
-      </c>
-      <c r="T63" s="11">
-        <v>0</v>
-      </c>
-      <c r="U63" s="11">
-        <v>0</v>
-      </c>
-      <c r="V63" s="11">
-        <v>0</v>
-      </c>
-      <c r="W63" s="11">
-        <v>0</v>
-      </c>
-      <c r="X63" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="11" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
-      <c r="A64" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="B75" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O75" s="15">
+        <v>0</v>
+      </c>
+      <c r="P75" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>0</v>
+      </c>
+      <c r="R75" s="15">
+        <v>0</v>
+      </c>
+      <c r="S75" s="15">
+        <v>1</v>
+      </c>
+      <c r="T75" s="15">
+        <v>1</v>
+      </c>
+      <c r="U75" s="15">
+        <v>0</v>
+      </c>
+      <c r="W75" s="15">
+        <v>0</v>
+      </c>
+      <c r="X75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A76" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0</v>
+      </c>
+      <c r="P76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>0</v>
+      </c>
+      <c r="R76" s="10">
+        <v>0</v>
+      </c>
+      <c r="S76" s="10">
+        <v>1</v>
+      </c>
+      <c r="T76" s="10">
+        <v>1</v>
+      </c>
+      <c r="U76" s="10">
+        <v>0</v>
+      </c>
+      <c r="V76" s="10">
+        <v>0</v>
+      </c>
+      <c r="W76" s="10">
+        <v>0</v>
+      </c>
+      <c r="X76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A77" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O77" s="10">
+        <v>0</v>
+      </c>
+      <c r="P77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>0</v>
+      </c>
+      <c r="R77" s="10">
+        <v>0</v>
+      </c>
+      <c r="S77" s="10">
+        <v>1</v>
+      </c>
+      <c r="T77" s="10">
+        <v>1</v>
+      </c>
+      <c r="U77" s="10">
+        <v>0</v>
+      </c>
+      <c r="V77" s="10">
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
+        <v>0</v>
+      </c>
+      <c r="X77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="15" customFormat="1" spans="1:24">
+      <c r="A78" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O64" s="11">
-        <v>0</v>
-      </c>
-      <c r="P64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="11">
-        <v>0</v>
-      </c>
-      <c r="R64" s="11">
-        <v>0</v>
-      </c>
-      <c r="S64" s="11">
-        <v>1</v>
-      </c>
-      <c r="T64" s="11">
-        <v>0</v>
-      </c>
-      <c r="U64" s="11">
-        <v>0</v>
-      </c>
-      <c r="V64" s="11">
-        <v>0</v>
-      </c>
-      <c r="W64" s="11">
-        <v>0</v>
-      </c>
-      <c r="X64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A65" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O65" s="11">
-        <v>0</v>
-      </c>
-      <c r="P65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
-        <v>0</v>
-      </c>
-      <c r="R65" s="11">
-        <v>0</v>
-      </c>
-      <c r="S65" s="11">
-        <v>0</v>
-      </c>
-      <c r="T65" s="11">
-        <v>0</v>
-      </c>
-      <c r="U65" s="11">
-        <v>0</v>
-      </c>
-      <c r="V65" s="11">
-        <v>0</v>
-      </c>
-      <c r="W65" s="11">
-        <v>0</v>
-      </c>
-      <c r="X65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A66" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O66" s="11">
-        <v>0</v>
-      </c>
-      <c r="P66" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="11">
-        <v>0</v>
-      </c>
-      <c r="R66" s="11">
-        <v>0</v>
-      </c>
-      <c r="S66" s="11">
-        <v>0</v>
-      </c>
-      <c r="T66" s="11">
-        <v>0</v>
-      </c>
-      <c r="U66" s="11">
-        <v>0</v>
-      </c>
-      <c r="V66" s="11">
-        <v>0</v>
-      </c>
-      <c r="W66" s="11">
-        <v>0</v>
-      </c>
-      <c r="X66" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A67" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O67" s="8">
-        <v>0</v>
-      </c>
-      <c r="P67" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="8">
-        <v>0</v>
-      </c>
-      <c r="R67" s="8">
-        <v>0</v>
-      </c>
-      <c r="S67" s="8">
-        <v>1</v>
-      </c>
-      <c r="T67" s="8">
-        <v>1</v>
-      </c>
-      <c r="U67" s="8">
-        <v>0</v>
-      </c>
-      <c r="V67" s="8">
-        <v>0</v>
-      </c>
-      <c r="W67" s="8">
-        <v>0</v>
-      </c>
-      <c r="X67" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="1" spans="1:24">
-      <c r="A68" s="12" t="s">
+      <c r="B78" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="E78" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O68" s="12">
-        <v>0</v>
-      </c>
-      <c r="P68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="12">
-        <v>0</v>
-      </c>
-      <c r="R68" s="12">
-        <v>0</v>
-      </c>
-      <c r="S68" s="12">
-        <v>1</v>
-      </c>
-      <c r="T68" s="12">
-        <v>1</v>
-      </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12">
-        <v>0</v>
-      </c>
-      <c r="X68" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A69" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O69" s="8">
-        <v>0</v>
-      </c>
-      <c r="P69" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="8">
-        <v>0</v>
-      </c>
-      <c r="R69" s="8">
-        <v>0</v>
-      </c>
-      <c r="S69" s="8">
-        <v>1</v>
-      </c>
-      <c r="T69" s="8">
-        <v>1</v>
-      </c>
-      <c r="U69" s="8">
-        <v>0</v>
-      </c>
-      <c r="V69" s="8">
-        <v>0</v>
-      </c>
-      <c r="W69" s="8">
-        <v>0</v>
-      </c>
-      <c r="X69" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O70" s="8">
-        <v>0</v>
-      </c>
-      <c r="P70" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="8">
-        <v>0</v>
-      </c>
-      <c r="R70" s="8">
-        <v>0</v>
-      </c>
-      <c r="S70" s="8">
-        <v>1</v>
-      </c>
-      <c r="T70" s="8">
-        <v>1</v>
-      </c>
-      <c r="U70" s="8">
-        <v>0</v>
-      </c>
-      <c r="V70" s="8">
-        <v>0</v>
-      </c>
-      <c r="W70" s="8">
-        <v>0</v>
-      </c>
-      <c r="X70" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="12" customFormat="1" spans="1:24">
-      <c r="A71" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O71" s="12">
-        <v>0</v>
-      </c>
-      <c r="P71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="12">
-        <v>0</v>
-      </c>
-      <c r="R71" s="12">
-        <v>0</v>
-      </c>
-      <c r="S71" s="12">
-        <v>1</v>
-      </c>
-      <c r="T71" s="12">
-        <v>1</v>
-      </c>
-      <c r="U71" s="12">
-        <v>0</v>
-      </c>
-      <c r="W71" s="12">
-        <v>0</v>
-      </c>
-      <c r="X71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A72" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O72" s="8">
-        <v>0</v>
-      </c>
-      <c r="P72" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="8">
-        <v>0</v>
-      </c>
-      <c r="R72" s="8">
-        <v>0</v>
-      </c>
-      <c r="S72" s="8">
-        <v>1</v>
-      </c>
-      <c r="T72" s="8">
-        <v>1</v>
-      </c>
-      <c r="U72" s="8">
-        <v>0</v>
-      </c>
-      <c r="V72" s="8">
-        <v>0</v>
-      </c>
-      <c r="W72" s="8">
-        <v>0</v>
-      </c>
-      <c r="X72" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A73" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O73" s="8">
-        <v>0</v>
-      </c>
-      <c r="P73" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="8">
-        <v>0</v>
-      </c>
-      <c r="R73" s="8">
-        <v>0</v>
-      </c>
-      <c r="S73" s="8">
-        <v>1</v>
-      </c>
-      <c r="T73" s="8">
-        <v>1</v>
-      </c>
-      <c r="U73" s="8">
-        <v>0</v>
-      </c>
-      <c r="V73" s="8">
-        <v>0</v>
-      </c>
-      <c r="W73" s="8">
-        <v>0</v>
-      </c>
-      <c r="X73" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="8">
+      <c r="G78" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O78" s="15">
+        <v>0</v>
+      </c>
+      <c r="P78" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="15">
+        <v>0</v>
+      </c>
+      <c r="R78" s="15">
+        <v>0</v>
+      </c>
+      <c r="S78" s="15">
+        <v>1</v>
+      </c>
+      <c r="T78" s="15">
+        <v>1</v>
+      </c>
+      <c r="U78" s="15">
+        <v>0</v>
+      </c>
+      <c r="W78" s="15">
+        <v>0</v>
+      </c>
+      <c r="X78" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A79" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0</v>
+      </c>
+      <c r="P79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="10">
+        <v>0</v>
+      </c>
+      <c r="R79" s="10">
+        <v>0</v>
+      </c>
+      <c r="S79" s="10">
+        <v>1</v>
+      </c>
+      <c r="T79" s="10">
+        <v>1</v>
+      </c>
+      <c r="U79" s="10">
+        <v>0</v>
+      </c>
+      <c r="V79" s="10">
+        <v>0</v>
+      </c>
+      <c r="W79" s="10">
+        <v>0</v>
+      </c>
+      <c r="X79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A80" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O80" s="10">
+        <v>0</v>
+      </c>
+      <c r="P80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>0</v>
+      </c>
+      <c r="R80" s="10">
+        <v>0</v>
+      </c>
+      <c r="S80" s="10">
+        <v>1</v>
+      </c>
+      <c r="T80" s="10">
+        <v>1</v>
+      </c>
+      <c r="U80" s="10">
+        <v>0</v>
+      </c>
+      <c r="V80" s="10">
+        <v>0</v>
+      </c>
+      <c r="W80" s="10">
+        <v>0</v>
+      </c>
+      <c r="X80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -610,6 +610,9 @@
     <t>friendinvite</t>
   </si>
   <si>
+    <t>FriendInvite</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -818,9 +821,6 @@
   </si>
   <si>
     <t>添加好友时间</t>
-  </si>
-  <si>
-    <t>FriendInvite</t>
   </si>
   <si>
     <t>申请时间</t>
@@ -2031,11 +2031,11 @@
   <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4753,7 +4753,7 @@
         <v>97</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>71</v>
@@ -4815,7 +4815,7 @@
         <v>72</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>71</v>
@@ -4874,19 +4874,19 @@
     </row>
     <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="44" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>84</v>
@@ -5001,13 +5001,13 @@
     </row>
     <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A45" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>84</v>
@@ -5063,16 +5063,16 @@
     </row>
     <row r="46" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A46" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O46" s="7">
         <v>0</v>
@@ -5125,16 +5125,16 @@
     </row>
     <row r="47" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="O47" s="7">
         <v>0</v>
@@ -5187,13 +5187,13 @@
     </row>
     <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A48" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>84</v>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="49" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A49" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>84</v>
@@ -5314,19 +5314,19 @@
     </row>
     <row r="50" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A50" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>71</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="51" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>71</v>
@@ -5450,10 +5450,10 @@
     </row>
     <row r="52" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A52" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>99</v>
@@ -5512,13 +5512,13 @@
     </row>
     <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A53" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>84</v>
@@ -5574,19 +5574,19 @@
     </row>
     <row r="54" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A54" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>71</v>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="55" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A55" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>148</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A56" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>98</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="57" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A57" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>98</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="58" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A58" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>111</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="59" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A59" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>119</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="60" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A60" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>125</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="62" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A62" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>147</v>
@@ -6115,7 +6115,7 @@
         <v>84</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O62" s="12">
         <v>1</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="63" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A63" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>147</v>
@@ -6180,7 +6180,7 @@
         <v>84</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O63" s="12">
         <v>1</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="64" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A64" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>147</v>
@@ -6245,7 +6245,7 @@
         <v>73</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O64" s="12">
         <v>0</v>
@@ -6298,13 +6298,13 @@
     </row>
     <row r="65" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A65" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>84</v>
@@ -6360,13 +6360,13 @@
     </row>
     <row r="66" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A66" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>84</v>
@@ -6484,19 +6484,19 @@
     </row>
     <row r="68" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A68" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O68" s="13">
         <v>0</v>
@@ -6549,13 +6549,13 @@
     </row>
     <row r="69" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A69" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>84</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="71" s="14" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
       <c r="A71" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>102</v>
@@ -6735,13 +6735,13 @@
     </row>
     <row r="72" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A72" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>84</v>
@@ -6797,13 +6797,13 @@
     </row>
     <row r="73" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A73" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>73</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="76" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A76" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>160</v>
@@ -7033,7 +7033,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>71</v>
@@ -7095,7 +7095,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>75</v>
@@ -7142,7 +7142,7 @@
         <v>211</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>101</v>
@@ -7204,7 +7204,7 @@
         <v>212</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>213</v>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="506"/>
+    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -875,65 +875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -949,8 +890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,6 +901,56 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,26 +972,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,8 +995,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,49 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,109 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1136,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,17 +1303,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,7 +1331,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,21 +1351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1372,11 +1366,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,8 +1384,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,10 +1408,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,137 +1420,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,16 +1593,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,43 +2022,43 @@
   <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="16" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="16" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="16" customWidth="1"/>
-    <col min="15" max="16" width="19.25" style="16" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="11" style="16" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="15" style="16" customWidth="1"/>
-    <col min="22" max="22" width="11" style="16" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="16" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="16" customWidth="1"/>
-    <col min="26" max="29" width="9" style="16" customWidth="1"/>
-    <col min="30" max="30" width="11" style="16" customWidth="1"/>
-    <col min="31" max="31" width="8.375" style="16" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="16" customWidth="1"/>
-    <col min="33" max="33" width="19.625" style="16" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="16" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="48.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="14" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="14" customWidth="1"/>
+    <col min="13" max="14" width="18.25" style="14" customWidth="1"/>
+    <col min="15" max="16" width="19.25" style="14" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="14" customWidth="1"/>
+    <col min="19" max="19" width="11" style="14" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="15" style="14" customWidth="1"/>
+    <col min="22" max="22" width="11" style="14" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="14" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="14" customWidth="1"/>
+    <col min="26" max="29" width="9" style="14" customWidth="1"/>
+    <col min="30" max="30" width="11" style="14" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="14" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="14" customWidth="1"/>
+    <col min="33" max="33" width="19.625" style="14" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="14" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -5322,7 +5313,7 @@
       <c r="C50" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -5396,7 +5387,7 @@
       <c r="C51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="7" t="s">
         <v>84</v>
       </c>
       <c r="O51" s="9">
@@ -5458,7 +5449,7 @@
       <c r="C52" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="7" t="s">
         <v>84</v>
       </c>
       <c r="O52" s="9">
@@ -5582,7 +5573,7 @@
       <c r="C54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -5656,7 +5647,7 @@
       <c r="C55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -6076,13 +6067,13 @@
       <c r="V61" s="12">
         <v>0</v>
       </c>
-      <c r="W61" s="18">
-        <v>1</v>
-      </c>
-      <c r="X61" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="18">
+      <c r="W61" s="15">
+        <v>1</v>
+      </c>
+      <c r="X61" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="15">
         <v>1</v>
       </c>
       <c r="Z61" s="12">
@@ -6141,13 +6132,13 @@
       <c r="V62" s="12">
         <v>0</v>
       </c>
-      <c r="W62" s="18">
-        <v>1</v>
-      </c>
-      <c r="X62" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="18">
+      <c r="W62" s="15">
+        <v>1</v>
+      </c>
+      <c r="X62" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="15">
         <v>1</v>
       </c>
       <c r="Z62" s="12">
@@ -6206,13 +6197,13 @@
       <c r="V63" s="12">
         <v>0</v>
       </c>
-      <c r="W63" s="18">
-        <v>1</v>
-      </c>
-      <c r="X63" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="18">
+      <c r="W63" s="15">
+        <v>1</v>
+      </c>
+      <c r="X63" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="15">
         <v>1</v>
       </c>
       <c r="Z63" s="12">
@@ -6271,13 +6262,13 @@
       <c r="V64" s="12">
         <v>0</v>
       </c>
-      <c r="W64" s="18">
-        <v>1</v>
-      </c>
-      <c r="X64" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="18">
+      <c r="W64" s="15">
+        <v>1</v>
+      </c>
+      <c r="X64" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="15">
         <v>1</v>
       </c>
       <c r="Z64" s="12">
@@ -6333,13 +6324,13 @@
       <c r="V65" s="12">
         <v>0</v>
       </c>
-      <c r="W65" s="18">
-        <v>1</v>
-      </c>
-      <c r="X65" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="18">
+      <c r="W65" s="15">
+        <v>1</v>
+      </c>
+      <c r="X65" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="15">
         <v>1</v>
       </c>
       <c r="Z65" s="12">
@@ -6395,13 +6386,13 @@
       <c r="V66" s="12">
         <v>0</v>
       </c>
-      <c r="W66" s="18">
-        <v>1</v>
-      </c>
-      <c r="X66" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="18">
+      <c r="W66" s="15">
+        <v>1</v>
+      </c>
+      <c r="X66" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="15">
         <v>1</v>
       </c>
       <c r="Z66" s="12">
@@ -6492,7 +6483,7 @@
       <c r="C68" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F68" s="13" t="s">
@@ -6609,251 +6600,251 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A70" s="14" t="s">
+    <row r="70" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O70" s="14">
-        <v>0</v>
-      </c>
-      <c r="P70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="14">
-        <v>0</v>
-      </c>
-      <c r="R70" s="14">
-        <v>0</v>
-      </c>
-      <c r="S70" s="14">
-        <v>0</v>
-      </c>
-      <c r="T70" s="14">
-        <v>0</v>
-      </c>
-      <c r="U70" s="14">
-        <v>0</v>
-      </c>
-      <c r="V70" s="14">
-        <v>0</v>
-      </c>
-      <c r="W70" s="14">
-        <v>0</v>
-      </c>
-      <c r="X70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="14" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
-      <c r="A71" s="14" t="s">
+      <c r="O70" s="9">
+        <v>0</v>
+      </c>
+      <c r="P70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0</v>
+      </c>
+      <c r="R70" s="9">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="9">
+        <v>0</v>
+      </c>
+      <c r="U70" s="9">
+        <v>0</v>
+      </c>
+      <c r="V70" s="9">
+        <v>0</v>
+      </c>
+      <c r="W70" s="9">
+        <v>0</v>
+      </c>
+      <c r="X70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
+      <c r="A71" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O71" s="14">
-        <v>0</v>
-      </c>
-      <c r="P71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="14">
-        <v>0</v>
-      </c>
-      <c r="R71" s="14">
-        <v>0</v>
-      </c>
-      <c r="S71" s="14">
-        <v>1</v>
-      </c>
-      <c r="T71" s="14">
-        <v>0</v>
-      </c>
-      <c r="U71" s="14">
-        <v>0</v>
-      </c>
-      <c r="V71" s="14">
-        <v>0</v>
-      </c>
-      <c r="W71" s="14">
-        <v>0</v>
-      </c>
-      <c r="X71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A72" s="14" t="s">
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0</v>
+      </c>
+      <c r="R71" s="9">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>1</v>
+      </c>
+      <c r="T71" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" s="9">
+        <v>0</v>
+      </c>
+      <c r="V71" s="9">
+        <v>0</v>
+      </c>
+      <c r="W71" s="9">
+        <v>0</v>
+      </c>
+      <c r="X71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A72" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O72" s="14">
-        <v>0</v>
-      </c>
-      <c r="P72" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="14">
-        <v>0</v>
-      </c>
-      <c r="R72" s="14">
-        <v>0</v>
-      </c>
-      <c r="S72" s="14">
-        <v>0</v>
-      </c>
-      <c r="T72" s="14">
-        <v>0</v>
-      </c>
-      <c r="U72" s="14">
-        <v>0</v>
-      </c>
-      <c r="V72" s="14">
-        <v>0</v>
-      </c>
-      <c r="W72" s="14">
-        <v>0</v>
-      </c>
-      <c r="X72" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A73" s="14" t="s">
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>0</v>
+      </c>
+      <c r="R72" s="9">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="9">
+        <v>0</v>
+      </c>
+      <c r="U72" s="9">
+        <v>0</v>
+      </c>
+      <c r="V72" s="9">
+        <v>0</v>
+      </c>
+      <c r="W72" s="9">
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A73" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O73" s="14">
-        <v>0</v>
-      </c>
-      <c r="P73" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="14">
-        <v>0</v>
-      </c>
-      <c r="R73" s="14">
-        <v>0</v>
-      </c>
-      <c r="S73" s="14">
-        <v>0</v>
-      </c>
-      <c r="T73" s="14">
-        <v>0</v>
-      </c>
-      <c r="U73" s="14">
-        <v>0</v>
-      </c>
-      <c r="V73" s="14">
-        <v>0</v>
-      </c>
-      <c r="W73" s="14">
-        <v>0</v>
-      </c>
-      <c r="X73" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="14">
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>0</v>
+      </c>
+      <c r="R73" s="9">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="9">
+        <v>0</v>
+      </c>
+      <c r="U73" s="9">
+        <v>0</v>
+      </c>
+      <c r="V73" s="9">
+        <v>0</v>
+      </c>
+      <c r="W73" s="9">
+        <v>0</v>
+      </c>
+      <c r="X73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6919,50 +6910,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="15" customFormat="1" spans="1:24">
-      <c r="A75" s="15" t="s">
+    <row r="75" s="13" customFormat="1" spans="1:24">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O75" s="15">
-        <v>0</v>
-      </c>
-      <c r="P75" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="15">
-        <v>0</v>
-      </c>
-      <c r="R75" s="15">
-        <v>0</v>
-      </c>
-      <c r="S75" s="15">
-        <v>1</v>
-      </c>
-      <c r="T75" s="15">
-        <v>1</v>
-      </c>
-      <c r="U75" s="15">
-        <v>0</v>
-      </c>
-      <c r="W75" s="15">
-        <v>0</v>
-      </c>
-      <c r="X75" s="15">
+      <c r="O75" s="13">
+        <v>0</v>
+      </c>
+      <c r="P75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>0</v>
+      </c>
+      <c r="R75" s="13">
+        <v>0</v>
+      </c>
+      <c r="S75" s="13">
+        <v>1</v>
+      </c>
+      <c r="T75" s="13">
+        <v>1</v>
+      </c>
+      <c r="U75" s="13">
+        <v>0</v>
+      </c>
+      <c r="W75" s="13">
+        <v>0</v>
+      </c>
+      <c r="X75" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7090,50 +7081,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="15" customFormat="1" spans="1:24">
-      <c r="A78" s="15" t="s">
+    <row r="78" s="13" customFormat="1" spans="1:24">
+      <c r="A78" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O78" s="15">
-        <v>0</v>
-      </c>
-      <c r="P78" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="15">
-        <v>0</v>
-      </c>
-      <c r="R78" s="15">
-        <v>0</v>
-      </c>
-      <c r="S78" s="15">
-        <v>1</v>
-      </c>
-      <c r="T78" s="15">
-        <v>1</v>
-      </c>
-      <c r="U78" s="15">
-        <v>0</v>
-      </c>
-      <c r="W78" s="15">
-        <v>0</v>
-      </c>
-      <c r="X78" s="15">
+      <c r="O78" s="13">
+        <v>0</v>
+      </c>
+      <c r="P78" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>0</v>
+      </c>
+      <c r="R78" s="13">
+        <v>0</v>
+      </c>
+      <c r="S78" s="13">
+        <v>1</v>
+      </c>
+      <c r="T78" s="13">
+        <v>1</v>
+      </c>
+      <c r="U78" s="13">
+        <v>0</v>
+      </c>
+      <c r="W78" s="13">
+        <v>0</v>
+      </c>
+      <c r="X78" s="13">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="506"/>
+    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M36" authorId="0">
+    <comment ref="M35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N36" authorId="0">
+    <comment ref="N35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M43" authorId="0">
+    <comment ref="M42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="212">
   <si>
     <t>#class</t>
   </si>
@@ -464,12 +464,6 @@
   </si>
   <si>
     <t>heroid</t>
-  </si>
-  <si>
-    <t>英雄数量( 服务器使用 )</t>
-  </si>
-  <si>
-    <t>herocount</t>
   </si>
   <si>
     <t>特效列表</t>
@@ -837,9 +831,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -875,24 +869,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,56 +879,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -972,6 +900,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -987,6 +974,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -995,32 +989,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,7 +1094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,85 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1148,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,31 +1214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,13 +1238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1301,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,8 +1359,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,41 +1394,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1408,10 +1402,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,133 +1414,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2019,14 +2013,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3548,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+    <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A23" s="6" t="s">
         <v>115</v>
       </c>
@@ -3559,10 +3553,22 @@
         <v>116</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="O23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="6">
         <v>0</v>
@@ -3574,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="6">
         <v>0</v>
@@ -3610,33 +3616,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="24" s="6" customFormat="1" spans="1:30">
       <c r="A24" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="O24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="6">
         <v>0</v>
@@ -3660,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="6">
         <v>1</v>
@@ -3684,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:30">
+    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A25" s="6" t="s">
         <v>121</v>
       </c>
@@ -3695,10 +3689,22 @@
         <v>122</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="6">
         <v>0</v>
@@ -3722,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="6">
         <v>1</v>
@@ -3746,33 +3752,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="26" s="6" customFormat="1" spans="1:30">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="O26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="6">
         <v>0</v>
@@ -3796,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="6">
         <v>1</v>
@@ -3820,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:30">
+    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A27" s="6" t="s">
         <v>127</v>
       </c>
@@ -3864,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="6">
         <v>0</v>
@@ -3893,7 +3887,7 @@
         <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O28" s="6">
         <v>0</v>
@@ -3911,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="6">
         <v>0</v>
@@ -4068,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A31" s="6" t="s">
         <v>135</v>
       </c>
@@ -4079,7 +4073,7 @@
         <v>136</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O31" s="6">
         <v>0</v>
@@ -4097,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="6">
         <v>0</v>
@@ -4112,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="6">
         <v>0</v>
@@ -4203,7 +4197,7 @@
         <v>140</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O33" s="6">
         <v>0</v>
@@ -4221,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="6">
         <v>0</v>
@@ -4236,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="6">
         <v>0</v>
@@ -4265,7 +4259,7 @@
         <v>142</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O34" s="6">
         <v>0</v>
@@ -4283,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="6">
         <v>0</v>
@@ -4327,10 +4321,31 @@
         <v>144</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="6">
+        <v>100</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
       </c>
       <c r="O35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -4354,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="W35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="6">
         <v>0</v>
@@ -4378,42 +4393,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="36" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A36" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" s="6">
-        <v>100</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -4425,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="6">
         <v>0</v>
@@ -4523,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+    <row r="38" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A38" s="6" t="s">
         <v>153</v>
       </c>
@@ -4534,7 +4528,19 @@
         <v>154</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="O38" s="6">
         <v>0</v>
@@ -4549,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="S38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="6">
         <v>0</v>
@@ -4587,19 +4593,19 @@
     </row>
     <row r="39" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>71</v>
@@ -4607,9 +4613,6 @@
       <c r="H39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="O39" s="6">
         <v>0</v>
       </c>
@@ -4635,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="W39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="6">
         <v>0</v>
@@ -4661,19 +4664,19 @@
     </row>
     <row r="40" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A40" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>71</v>
@@ -4730,89 +4733,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A41" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="6" t="s">
+    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <v>1</v>
-      </c>
-      <c r="T41" s="6">
-        <v>1</v>
-      </c>
-      <c r="U41" s="6">
-        <v>0</v>
-      </c>
-      <c r="V41" s="6">
-        <v>0</v>
-      </c>
-      <c r="W41" s="6">
-        <v>0</v>
-      </c>
-      <c r="X41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="6">
-        <v>0</v>
+      <c r="E41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A42" s="7" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="O42" s="7">
         <v>0</v>
@@ -4865,19 +4862,16 @@
     </row>
     <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A43" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
@@ -4933,7 +4927,7 @@
         <v>168</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>169</v>
@@ -4954,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7">
         <v>1</v>
@@ -4995,13 +4989,13 @@
         <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
@@ -5054,17 +5048,17 @@
     </row>
     <row r="46" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="O46" s="7">
         <v>0</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="7">
         <v>0</v>
@@ -5119,13 +5113,16 @@
         <v>175</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>174</v>
+        <v>84</v>
+      </c>
+      <c r="M47" s="7">
+        <v>99999</v>
       </c>
       <c r="O47" s="7">
         <v>0</v>
@@ -5140,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="7">
         <v>0</v>
@@ -5176,157 +5173,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A48" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M48" s="7">
-        <v>99999</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-      <c r="P48" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>0</v>
-      </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-      <c r="S48" s="7">
-        <v>1</v>
-      </c>
-      <c r="T48" s="7">
-        <v>1</v>
-      </c>
-      <c r="U48" s="7">
-        <v>0</v>
-      </c>
-      <c r="V48" s="7">
-        <v>1</v>
-      </c>
-      <c r="W48" s="7">
-        <v>1</v>
-      </c>
-      <c r="X48" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A49" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
+        <v>1</v>
+      </c>
+      <c r="T48" s="8">
+        <v>1</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+      <c r="W48" s="8">
+        <v>0</v>
+      </c>
+      <c r="X48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A49" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0</v>
-      </c>
-      <c r="P49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>0</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0</v>
-      </c>
-      <c r="S49" s="8">
-        <v>1</v>
-      </c>
-      <c r="T49" s="8">
-        <v>1</v>
-      </c>
-      <c r="U49" s="8">
-        <v>0</v>
-      </c>
-      <c r="V49" s="8">
-        <v>0</v>
-      </c>
-      <c r="W49" s="8">
-        <v>0</v>
-      </c>
-      <c r="X49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="8">
+      <c r="E49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O49" s="9">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1</v>
+      </c>
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="C50" s="9" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="O50" s="9">
         <v>0</v>
@@ -5379,13 +5373,13 @@
     </row>
     <row r="51" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A51" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>84</v>
@@ -5439,145 +5433,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A52" s="9" t="s">
-        <v>186</v>
+    <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A52" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>1</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A53" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-      <c r="P52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>0</v>
-      </c>
-      <c r="R52" s="9">
-        <v>0</v>
-      </c>
-      <c r="S52" s="9">
-        <v>1</v>
-      </c>
-      <c r="T52" s="9">
-        <v>1</v>
-      </c>
-      <c r="U52" s="9">
-        <v>0</v>
-      </c>
-      <c r="V52" s="9">
-        <v>0</v>
-      </c>
-      <c r="W52" s="9">
-        <v>0</v>
-      </c>
-      <c r="X52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A53" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O53" s="8">
-        <v>0</v>
-      </c>
-      <c r="P53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>0</v>
-      </c>
-      <c r="R53" s="8">
-        <v>0</v>
-      </c>
-      <c r="S53" s="8">
-        <v>1</v>
-      </c>
-      <c r="T53" s="8">
-        <v>0</v>
-      </c>
-      <c r="U53" s="8">
-        <v>0</v>
-      </c>
-      <c r="V53" s="8">
-        <v>0</v>
-      </c>
-      <c r="W53" s="8">
-        <v>0</v>
-      </c>
-      <c r="X53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="8">
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>1</v>
+      </c>
+      <c r="T53" s="9">
+        <v>0</v>
+      </c>
+      <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A54" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>71</v>
@@ -5637,210 +5643,201 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A55" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="9" t="s">
+    <row r="55" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A55" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="O55" s="9">
-        <v>0</v>
-      </c>
-      <c r="P55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>0</v>
-      </c>
-      <c r="R55" s="9">
-        <v>0</v>
-      </c>
-      <c r="S55" s="9">
-        <v>1</v>
-      </c>
-      <c r="T55" s="9">
-        <v>0</v>
-      </c>
-      <c r="U55" s="9">
-        <v>0</v>
-      </c>
-      <c r="V55" s="9">
-        <v>0</v>
-      </c>
-      <c r="W55" s="9">
-        <v>0</v>
-      </c>
-      <c r="X55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="9">
+      <c r="E55" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1</v>
+      </c>
+      <c r="T55" s="10">
+        <v>0</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A56" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>1</v>
+      </c>
+      <c r="T56" s="10">
+        <v>0</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A57" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O56" s="10">
-        <v>0</v>
-      </c>
-      <c r="P56" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="10">
-        <v>0</v>
-      </c>
-      <c r="R56" s="10">
-        <v>0</v>
-      </c>
-      <c r="S56" s="10">
-        <v>1</v>
-      </c>
-      <c r="T56" s="10">
-        <v>0</v>
-      </c>
-      <c r="U56" s="10">
-        <v>0</v>
-      </c>
-      <c r="V56" s="10">
-        <v>0</v>
-      </c>
-      <c r="W56" s="10">
-        <v>1</v>
-      </c>
-      <c r="X56" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A57" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O57" s="10">
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="10">
-        <v>0</v>
-      </c>
-      <c r="R57" s="10">
-        <v>0</v>
-      </c>
-      <c r="S57" s="10">
-        <v>1</v>
-      </c>
-      <c r="T57" s="10">
-        <v>0</v>
-      </c>
-      <c r="U57" s="10">
-        <v>0</v>
-      </c>
-      <c r="V57" s="10">
-        <v>0</v>
-      </c>
-      <c r="W57" s="10">
-        <v>1</v>
-      </c>
-      <c r="X57" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="10">
+      <c r="J57" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="11">
+        <v>1</v>
+      </c>
+      <c r="P57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>0</v>
+      </c>
+      <c r="R57" s="11">
+        <v>0</v>
+      </c>
+      <c r="S57" s="11">
+        <v>1</v>
+      </c>
+      <c r="T57" s="11">
+        <v>1</v>
+      </c>
+      <c r="U57" s="11">
+        <v>0</v>
+      </c>
+      <c r="V57" s="11">
+        <v>0</v>
+      </c>
+      <c r="W57" s="11">
+        <v>1</v>
+      </c>
+      <c r="X57" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="58" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A58" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>71</v>
@@ -5902,10 +5899,10 @@
     </row>
     <row r="59" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A59" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>71</v>
@@ -5965,86 +5962,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A60" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O60" s="11">
-        <v>1</v>
-      </c>
-      <c r="P60" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11">
-        <v>0</v>
-      </c>
-      <c r="R60" s="11">
-        <v>0</v>
-      </c>
-      <c r="S60" s="11">
-        <v>1</v>
-      </c>
-      <c r="T60" s="11">
-        <v>1</v>
-      </c>
-      <c r="U60" s="11">
-        <v>0</v>
-      </c>
-      <c r="V60" s="11">
-        <v>0</v>
-      </c>
-      <c r="W60" s="11">
-        <v>1</v>
-      </c>
-      <c r="X60" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="11">
+    <row r="60" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O60" s="12">
+        <v>0</v>
+      </c>
+      <c r="P60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>0</v>
+      </c>
+      <c r="R60" s="12">
+        <v>0</v>
+      </c>
+      <c r="S60" s="12">
+        <v>0</v>
+      </c>
+      <c r="T60" s="12">
+        <v>1</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0</v>
+      </c>
+      <c r="V60" s="12">
+        <v>0</v>
+      </c>
+      <c r="W60" s="15">
+        <v>1</v>
+      </c>
+      <c r="X60" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="61" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A61" s="12" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="O61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="12">
         <v>0</v>
@@ -6056,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="12">
         <v>1</v>
@@ -6097,10 +6094,10 @@
         <v>194</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>84</v>
@@ -6162,19 +6159,19 @@
         <v>196</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J63" s="12" t="s">
         <v>197</v>
       </c>
       <c r="O63" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="12">
         <v>0</v>
@@ -6227,16 +6224,13 @@
         <v>198</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="O64" s="12">
         <v>0</v>
@@ -6292,7 +6286,7 @@
         <v>200</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>201</v>
@@ -6349,269 +6343,269 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="12" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A66" s="12" t="s">
+    <row r="66" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>0</v>
+      </c>
+      <c r="R66" s="10">
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <v>1</v>
+      </c>
+      <c r="T66" s="10">
+        <v>0</v>
+      </c>
+      <c r="U66" s="10">
+        <v>0</v>
+      </c>
+      <c r="V66" s="10">
+        <v>0</v>
+      </c>
+      <c r="W66" s="10">
+        <v>1</v>
+      </c>
+      <c r="X66" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A67" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="E67" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="O67" s="13">
+        <v>0</v>
+      </c>
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>0</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0</v>
+      </c>
+      <c r="S67" s="13">
+        <v>1</v>
+      </c>
+      <c r="T67" s="13">
+        <v>1</v>
+      </c>
+      <c r="U67" s="13">
+        <v>0</v>
+      </c>
+      <c r="V67" s="13">
+        <v>0</v>
+      </c>
+      <c r="W67" s="13">
+        <v>0</v>
+      </c>
+      <c r="X67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A68" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O66" s="12">
-        <v>0</v>
-      </c>
-      <c r="P66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="12">
-        <v>0</v>
-      </c>
-      <c r="R66" s="12">
-        <v>0</v>
-      </c>
-      <c r="S66" s="12">
-        <v>1</v>
-      </c>
-      <c r="T66" s="12">
-        <v>1</v>
-      </c>
-      <c r="U66" s="12">
-        <v>0</v>
-      </c>
-      <c r="V66" s="12">
-        <v>0</v>
-      </c>
-      <c r="W66" s="15">
-        <v>1</v>
-      </c>
-      <c r="X66" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A67" s="10" t="s">
+      <c r="O68" s="10">
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>0</v>
+      </c>
+      <c r="R68" s="10">
+        <v>0</v>
+      </c>
+      <c r="S68" s="10">
+        <v>1</v>
+      </c>
+      <c r="T68" s="10">
+        <v>0</v>
+      </c>
+      <c r="U68" s="10">
+        <v>0</v>
+      </c>
+      <c r="V68" s="10">
+        <v>0</v>
+      </c>
+      <c r="W68" s="10">
+        <v>1</v>
+      </c>
+      <c r="X68" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B69" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O67" s="10">
-        <v>0</v>
-      </c>
-      <c r="P67" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="10">
-        <v>0</v>
-      </c>
-      <c r="R67" s="10">
-        <v>0</v>
-      </c>
-      <c r="S67" s="10">
-        <v>1</v>
-      </c>
-      <c r="T67" s="10">
-        <v>0</v>
-      </c>
-      <c r="U67" s="10">
-        <v>0</v>
-      </c>
-      <c r="V67" s="10">
-        <v>0</v>
-      </c>
-      <c r="W67" s="10">
-        <v>1</v>
-      </c>
-      <c r="X67" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" s="13" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A68" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="9">
+        <v>0</v>
+      </c>
+      <c r="U69" s="9">
+        <v>0</v>
+      </c>
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
+      <c r="A70" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="O68" s="13">
-        <v>0</v>
-      </c>
-      <c r="P68" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="13">
-        <v>0</v>
-      </c>
-      <c r="R68" s="13">
-        <v>0</v>
-      </c>
-      <c r="S68" s="13">
-        <v>1</v>
-      </c>
-      <c r="T68" s="13">
-        <v>1</v>
-      </c>
-      <c r="U68" s="13">
-        <v>0</v>
-      </c>
-      <c r="V68" s="13">
-        <v>0</v>
-      </c>
-      <c r="W68" s="13">
-        <v>0</v>
-      </c>
-      <c r="X68" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A69" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O69" s="10">
-        <v>0</v>
-      </c>
-      <c r="P69" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="10">
-        <v>0</v>
-      </c>
-      <c r="R69" s="10">
-        <v>0</v>
-      </c>
-      <c r="S69" s="10">
-        <v>1</v>
-      </c>
-      <c r="T69" s="10">
-        <v>0</v>
-      </c>
-      <c r="U69" s="10">
-        <v>0</v>
-      </c>
-      <c r="V69" s="10">
-        <v>0</v>
-      </c>
-      <c r="W69" s="10">
-        <v>1</v>
-      </c>
-      <c r="X69" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A70" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="O70" s="9">
         <v>0</v>
@@ -6626,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="9">
         <v>0</v>
@@ -6662,18 +6656,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
+    <row r="71" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A71" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O71" s="9">
         <v>0</v>
@@ -6688,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="9">
         <v>0</v>
@@ -6726,16 +6720,16 @@
     </row>
     <row r="72" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A72" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O72" s="9">
         <v>0</v>
@@ -6786,186 +6780,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A73" s="9" t="s">
+    <row r="73" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O73" s="10">
+        <v>0</v>
+      </c>
+      <c r="P73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>0</v>
+      </c>
+      <c r="R73" s="10">
+        <v>0</v>
+      </c>
+      <c r="S73" s="10">
+        <v>1</v>
+      </c>
+      <c r="T73" s="10">
+        <v>1</v>
+      </c>
+      <c r="U73" s="10">
+        <v>0</v>
+      </c>
+      <c r="V73" s="10">
+        <v>0</v>
+      </c>
+      <c r="W73" s="10">
+        <v>0</v>
+      </c>
+      <c r="X73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="13" customFormat="1" spans="1:24">
+      <c r="A74" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O74" s="13">
+        <v>0</v>
+      </c>
+      <c r="P74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>0</v>
+      </c>
+      <c r="R74" s="13">
+        <v>0</v>
+      </c>
+      <c r="S74" s="13">
+        <v>1</v>
+      </c>
+      <c r="T74" s="13">
+        <v>1</v>
+      </c>
+      <c r="U74" s="13">
+        <v>0</v>
+      </c>
+      <c r="W74" s="13">
+        <v>0</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A75" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="B75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O73" s="9">
-        <v>0</v>
-      </c>
-      <c r="P73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="9">
-        <v>0</v>
-      </c>
-      <c r="R73" s="9">
-        <v>0</v>
-      </c>
-      <c r="S73" s="9">
-        <v>0</v>
-      </c>
-      <c r="T73" s="9">
-        <v>0</v>
-      </c>
-      <c r="U73" s="9">
-        <v>0</v>
-      </c>
-      <c r="V73" s="9">
-        <v>0</v>
-      </c>
-      <c r="W73" s="9">
-        <v>0</v>
-      </c>
-      <c r="X73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A74" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O74" s="10">
-        <v>0</v>
-      </c>
-      <c r="P74" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="10">
-        <v>0</v>
-      </c>
-      <c r="R74" s="10">
-        <v>0</v>
-      </c>
-      <c r="S74" s="10">
-        <v>1</v>
-      </c>
-      <c r="T74" s="10">
-        <v>1</v>
-      </c>
-      <c r="U74" s="10">
-        <v>0</v>
-      </c>
-      <c r="V74" s="10">
-        <v>0</v>
-      </c>
-      <c r="W74" s="10">
-        <v>0</v>
-      </c>
-      <c r="X74" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="13" customFormat="1" spans="1:24">
-      <c r="A75" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O75" s="13">
-        <v>0</v>
-      </c>
-      <c r="P75" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="13">
-        <v>0</v>
-      </c>
-      <c r="R75" s="13">
-        <v>0</v>
-      </c>
-      <c r="S75" s="13">
-        <v>1</v>
-      </c>
-      <c r="T75" s="13">
-        <v>1</v>
-      </c>
-      <c r="U75" s="13">
-        <v>0</v>
-      </c>
-      <c r="W75" s="13">
-        <v>0</v>
-      </c>
-      <c r="X75" s="13">
+      <c r="O75" s="10">
+        <v>0</v>
+      </c>
+      <c r="P75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="10">
+        <v>0</v>
+      </c>
+      <c r="R75" s="10">
+        <v>0</v>
+      </c>
+      <c r="S75" s="10">
+        <v>1</v>
+      </c>
+      <c r="T75" s="10">
+        <v>1</v>
+      </c>
+      <c r="U75" s="10">
+        <v>0</v>
+      </c>
+      <c r="V75" s="10">
+        <v>0</v>
+      </c>
+      <c r="W75" s="10">
+        <v>0</v>
+      </c>
+      <c r="X75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A76" s="10" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>73</v>
@@ -7019,127 +7013,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A77" s="10" t="s">
+    <row r="77" s="13" customFormat="1" spans="1:24">
+      <c r="A77" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="O77" s="13">
+        <v>0</v>
+      </c>
+      <c r="P77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0</v>
+      </c>
+      <c r="S77" s="13">
+        <v>1</v>
+      </c>
+      <c r="T77" s="13">
+        <v>1</v>
+      </c>
+      <c r="U77" s="13">
+        <v>0</v>
+      </c>
+      <c r="W77" s="13">
+        <v>0</v>
+      </c>
+      <c r="X77" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A78" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O77" s="10">
-        <v>0</v>
-      </c>
-      <c r="P77" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="10">
-        <v>0</v>
-      </c>
-      <c r="R77" s="10">
-        <v>0</v>
-      </c>
-      <c r="S77" s="10">
-        <v>1</v>
-      </c>
-      <c r="T77" s="10">
-        <v>1</v>
-      </c>
-      <c r="U77" s="10">
-        <v>0</v>
-      </c>
-      <c r="V77" s="10">
-        <v>0</v>
-      </c>
-      <c r="W77" s="10">
-        <v>0</v>
-      </c>
-      <c r="X77" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="13" customFormat="1" spans="1:24">
-      <c r="A78" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O78" s="13">
-        <v>0</v>
-      </c>
-      <c r="P78" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="13">
-        <v>0</v>
-      </c>
-      <c r="R78" s="13">
-        <v>0</v>
-      </c>
-      <c r="S78" s="13">
-        <v>1</v>
-      </c>
-      <c r="T78" s="13">
-        <v>1</v>
-      </c>
-      <c r="U78" s="13">
-        <v>0</v>
-      </c>
-      <c r="W78" s="13">
-        <v>0</v>
-      </c>
-      <c r="X78" s="13">
+      <c r="O78" s="10">
+        <v>0</v>
+      </c>
+      <c r="P78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>0</v>
+      </c>
+      <c r="R78" s="10">
+        <v>0</v>
+      </c>
+      <c r="S78" s="10">
+        <v>1</v>
+      </c>
+      <c r="T78" s="10">
+        <v>1</v>
+      </c>
+      <c r="U78" s="10">
+        <v>0</v>
+      </c>
+      <c r="V78" s="10">
+        <v>0</v>
+      </c>
+      <c r="W78" s="10">
+        <v>0</v>
+      </c>
+      <c r="X78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A79" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="E79" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O79" s="10">
         <v>0</v>
@@ -7187,68 +7181,6 @@
         <v>0</v>
       </c>
       <c r="AD79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A80" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O80" s="10">
-        <v>0</v>
-      </c>
-      <c r="P80" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="10">
-        <v>0</v>
-      </c>
-      <c r="R80" s="10">
-        <v>0</v>
-      </c>
-      <c r="S80" s="10">
-        <v>1</v>
-      </c>
-      <c r="T80" s="10">
-        <v>1</v>
-      </c>
-      <c r="U80" s="10">
-        <v>0</v>
-      </c>
-      <c r="V80" s="10">
-        <v>0</v>
-      </c>
-      <c r="W80" s="10">
-        <v>0</v>
-      </c>
-      <c r="X80" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -832,8 +832,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -876,25 +876,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +914,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,7 +922,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,18 +974,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,22 +989,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,38 +1014,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,91 +1094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1124,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,13 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,25 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,19 +1220,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,27 +1301,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,41 +1351,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,6 +1374,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1402,10 +1402,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,133 +1414,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2016,11 +2016,11 @@
   <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="6">
         <v>1</v>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -831,9 +831,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -870,6 +870,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -877,7 +899,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,61 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,15 +950,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,9 +960,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1012,9 +982,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,19 +1094,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,25 +1148,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,85 +1190,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,19 +1238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +1293,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,30 +1362,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1386,11 +1388,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,10 +1402,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,34 +1414,37 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,97 +1453,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2016,11 +2016,11 @@
   <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X43" sqref="X43"/>
+      <selection pane="bottomRight" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="6">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="6">
         <v>1</v>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -2016,11 +2016,11 @@
   <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="P44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S40" sqref="S40"/>
+      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="10">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="13">
         <v>1</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="10">
         <v>1</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="10">
         <v>1</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="13">
         <v>1</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="10">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="10">
         <v>1</v>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -831,9 +831,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -869,6 +869,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -876,8 +892,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,45 +908,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,9 +954,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,6 +970,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -974,14 +992,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -989,25 +999,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,6 +1010,13 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1094,7 +1094,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,25 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,97 +1256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,37 +1268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,6 +1297,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1312,13 +1336,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,6 +1355,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1347,45 +1386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1402,10 +1402,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,133 +1414,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2016,11 +2016,11 @@
   <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="P44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="R50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="$A66:$XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="T68" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="10">
         <v>0</v>

--- a/Resource/excel/玩家-属性定义.xlsx
+++ b/Resource/excel/玩家-属性定义.xlsx
@@ -2020,7 +2020,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="$A66:$XFD68"/>
+      <selection pane="bottomRight" activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="10">
         <v>0</v>
